--- a/data/trans_dic/P28B_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P28B_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha dormido peor respecto al último mes</t>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>22,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>22,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>17,72%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,74; 41,0</t>
+          <t>23,67; 44,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,25</t>
+          <t>6,86; 18,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 16,66</t>
+          <t>8,45; 17,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 19,83</t>
+          <t>8,33; 20,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 25,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,72; 39,5</t>
+          <t>23,62; 40,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 29,54</t>
+          <t>16,01; 31,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,27; 27,13</t>
+          <t>18,52; 28,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,18; 18,48</t>
+          <t>12,12; 19,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,42; 25,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,42; 38,02</t>
+          <t>26,06; 39,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,45; 22,26</t>
+          <t>13,71; 23,8</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 21,01</t>
+          <t>15,0; 22,19</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 16,97</t>
+          <t>11,6; 17,89</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 24,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,42 +851,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,41%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,47%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>23,86%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -895,32 +896,32 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>33,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,63%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>26,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,95; 40,17</t>
+          <t>30,49; 43,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 28,6</t>
+          <t>21,21; 34,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,71; 21,32</t>
+          <t>15,05; 22,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,05; 19,14</t>
+          <t>12,12; 19,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,08; 24,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,06; 51,27</t>
+          <t>44,03; 56,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,6; 31,12</t>
+          <t>25,36; 35,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,66; 27,29</t>
+          <t>20,19; 27,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,19; 25,79</t>
+          <t>18,98; 26,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,49; 38,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,02; 44,5</t>
+          <t>39,3; 48,4</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,64</t>
+          <t>24,97; 32,7</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>18,64; 23,04</t>
+          <t>18,6; 24,21</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,15; 21,24</t>
+          <t>16,08; 21,27</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 29,78</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,43%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>22,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,28%</t>
+          <t>54,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,72%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1104,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,27; 40,89</t>
+          <t>28,91; 42,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,22; 28,91</t>
+          <t>16,7; 29,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,54; 21,4</t>
+          <t>13,81; 22,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,02; 17,35</t>
+          <t>10,3; 17,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,75; 27,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,59; 57,13</t>
+          <t>48,11; 60,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,74; 36,03</t>
+          <t>26,28; 36,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,54; 32,86</t>
+          <t>25,01; 33,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,33; 27,64</t>
+          <t>20,68; 27,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>28,13; 40,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40,25; 47,37</t>
+          <t>40,96; 50,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,37; 30,16</t>
+          <t>23,18; 31,42</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 26,32</t>
+          <t>20,78; 26,99</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 21,23</t>
+          <t>16,27; 21,12</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>21,76; 31,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>22,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>43,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>25,14%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>29,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>40,63%</t>
+          <t>39,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>24,34%</t>
+          <t>25,15%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,83%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,83 +1274,261 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>32,72; 38,48</t>
+          <t>31,43; 39,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,06; 24,02</t>
+          <t>18,19; 27,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 18,45</t>
+          <t>11,06; 19,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 16,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>42,87; 47,96</t>
+          <t>40,37; 47,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,95; 30,23</t>
+          <t>24,37; 32,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,99; 27,33</t>
+          <t>20,59; 29,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 22,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,58; 32,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,84; 42,53</t>
+          <t>36,93; 42,01</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,46; 26,19</t>
+          <t>22,67; 28,37</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>19,2; 22,29</t>
+          <t>16,63; 22,44</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 18,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 26,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>35,36%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22,5%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>45,54%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25,3%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>40,56%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20,94%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32,36; 38,22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19,71; 25,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 18,71</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,97; 16,61</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42,94; 48,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>26,42; 31,4</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 27,63</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,95; 23,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>38,61; 42,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 27,7</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 22,5</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 19,25</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1360,4 +1539,1461 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha dormido peor respecto al último mes (tasa de respuesta: 99,89%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>76650</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>36458</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>65961</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>92321</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>82667</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96363</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>144402</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>138052</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>159317</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>132821</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>210363</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>230373</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>53604; 101734</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>21098; 57883</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>44514; 92719</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60415; 145461</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>61813; 106745</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>67501; 132585</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>116575; 179414</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108184; 174314</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>127240; 194047</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>99972; 173576</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>173415; 256611</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>187771; 289430</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>239572</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>249461</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>223297</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>245969</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>357569</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>298461</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>293758</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>336810</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>597141</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>547922</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>517054</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>582779</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>198448; 280957</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>197816; 319377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>181666; 274469</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>196621; 311246</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>314855; 400482</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>252864; 352497</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>248646; 343560</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>285191; 391927</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>536865; 661186</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>481912; 630896</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>453441; 590249</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>502415; 664623</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>161822</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>158264</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>148244</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>144255</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>287486</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>239470</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>276128</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>278337</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>449309</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>397734</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>424372</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>422592</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>131733; 194765</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>119535; 207869</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>116747; 186890</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>112077; 186863</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>255813; 320002</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>201332; 279801</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>235495; 315980</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>240599; 323336</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>404408; 500125</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>343478; 465513</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>371418; 482421</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>366148; 475334</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>674.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>740975</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>321150</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>126716</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>910773</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>394747</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>187055</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1651748</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>715897</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>313771</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>664553; 828861</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>263002; 403192</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94815; 165017</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>843700; 982230</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>341415; 450949</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>156550; 225929</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1552792; 1766193</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>645465; 807721</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>268981; 363014</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>719.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>421.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1192.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>628.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1219019</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>765332</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>564218</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>482545</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1638496</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1029042</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>901342</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>753199</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2857514</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1794374</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1465560</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1235744</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1115460; 1317460</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>670553; 877593</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>498688; 643085</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>411030; 570622</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1545196; 1734664</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>947319; 1126055</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>831321; 984370</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>674439; 827118</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2720533; 2988681</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1665177; 1935144</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1351523; 1575233</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1133900; 1346245</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>